--- a/src/test/resources/xlsx/building_1.xlsx
+++ b/src/test/resources/xlsx/building_1.xlsx
@@ -486,7 +486,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -598,6 +598,9 @@
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C4" s="1">
+        <v>3001</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>

--- a/src/test/resources/xlsx/building_1.xlsx
+++ b/src/test/resources/xlsx/building_1.xlsx
@@ -486,7 +486,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
